--- a/reports/nce_migrations/templates/xlsx/template.xlsx
+++ b/reports/nce_migrations/templates/xlsx/template.xlsx
@@ -2,44 +2,32 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\microsoft_reports\microsoft-reports\reports\nce_migrations\templates\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\microsoft_reports\msrep\reports\nce_migrations\templates\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACA4318-B84F-47A4-98EC-677E49B3E727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0B445F-166C-4048-ACBF-BB5F7C105FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{318CB605-763C-4AA6-9F23-64D702EEE8DA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
+    <t>Subscription ID</t>
+  </si>
+  <si>
     <t>Date of Migration</t>
   </si>
   <si>
@@ -62,9 +50,6 @@
   </si>
   <si>
     <t>Number of Licenses</t>
-  </si>
-  <si>
-    <t>Subscription ID</t>
   </si>
   <si>
     <t>Provider Name</t>
@@ -74,16 +59,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -111,15 +88,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -129,6 +105,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -142,44 +122,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -206,32 +186,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -258,24 +220,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -287,191 +231,212 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDA3AFD-2C37-45D5-A069-0CA7898B9F1D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="10" width="19.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{ADDA3AFD-2C37-45D5-A069-0CA7898B9F1D}"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/reports/nce_migrations/templates/xlsx/template.xlsx
+++ b/reports/nce_migrations/templates/xlsx/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\microsoft_reports\msrep\reports\nce_migrations\templates\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\microsoft_reports\reports2\reports\nce_migrations\templates\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0B445F-166C-4048-ACBF-BB5F7C105FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5529F2-2E3D-48A6-BAB2-611735F93819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,6 +59,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,8 +91,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,10 +110,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -396,11 +397,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -433,6 +446,18 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>

--- a/reports/nce_migrations/templates/xlsx/template.xlsx
+++ b/reports/nce_migrations/templates/xlsx/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\microsoft_reports\reports2\reports\nce_migrations\templates\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\microsoft_reports\microsoft_reports-cloudblue\reports\nce_migrations\templates\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5529F2-2E3D-48A6-BAB2-611735F93819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA98EC-F473-4381-B13E-D1C718F278E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Subscription ID</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>Provider Name</t>
+  </si>
+  <si>
+    <t>Connect Subscription ID</t>
+  </si>
+  <si>
+    <t>Marketplace ID</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
   </si>
 </sst>
 </file>
@@ -60,7 +69,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -94,7 +103,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,25 +406,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="17.140625" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -446,9 +458,17 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -460,7 +480,7 @@
       <c r="J2" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:M1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/reports/nce_migrations/templates/xlsx/template.xlsx
+++ b/reports/nce_migrations/templates/xlsx/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\microsoft_reports\microsoft_reports-cloudblue\reports\nce_migrations\templates\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\microsoft_reports\reports2\reports\nce_migrations\templates\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABA98EC-F473-4381-B13E-D1C718F278E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561739A3-1BA1-490A-94CA-2E718D5EC17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Subscription ID</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Connect Subscription Status</t>
   </si>
 </sst>
 </file>
@@ -69,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -103,7 +106,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -423,11 +426,11 @@
     <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="25" customWidth="1"/>
-    <col min="12" max="12" width="17.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -461,14 +464,17 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -480,7 +486,7 @@
       <c r="J2" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
